--- a/Test02_feature_importances.xlsx
+++ b/Test02_feature_importances.xlsx
@@ -67,19 +67,19 @@
     <t>key</t>
   </si>
   <si>
-    <t>Online_FreshMart_North Depot_Snacks_PRD0003</t>
-  </si>
-  <si>
-    <t>Retail_FoodBazaar_Uptown Depot_Frozen Foods_PRD0026</t>
-  </si>
-  <si>
-    <t>Retail_SuperShop_Harbor Depot_Produce_PRD0019</t>
-  </si>
-  <si>
-    <t>Retail_ValueStore_Harbor Depot_Snacks_PRD0005</t>
-  </si>
-  <si>
-    <t>Retail_ValueStore_Uptown Depot_Produce_PRD0019</t>
+    <t>Online_DailyNeeds_East Depot_Snacks_PRD0002</t>
+  </si>
+  <si>
+    <t>Online_FreshMart_North Depot_Dairy_PRD0009</t>
+  </si>
+  <si>
+    <t>Online_FreshMart_North Depot_Dairy_PRD0012</t>
+  </si>
+  <si>
+    <t>Online_FreshMart_North Depot_Dairy_PRD0013</t>
+  </si>
+  <si>
+    <t>Retail_FoodBazaar_Lakeside Depot_Produce_PRD0019</t>
   </si>
 </sst>
 </file>
@@ -629,112 +629,112 @@
         <v>17</v>
       </c>
       <c r="B4">
-        <v>18.66666666666667</v>
+        <v>72</v>
       </c>
       <c r="C4">
-        <v>0.03550991959198049</v>
+        <v>0.06102999923241597</v>
       </c>
       <c r="D4">
-        <v>0.01832347735762596</v>
+        <v>0.01921052299439907</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.08030822126420951</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0674336701631546</v>
       </c>
       <c r="H4">
-        <v>15.66666666666667</v>
+        <v>33.33333333333334</v>
       </c>
       <c r="I4">
-        <v>0.1474867548117832</v>
+        <v>0.07150167504951131</v>
       </c>
       <c r="J4">
-        <v>0.09151816368103027</v>
+        <v>0.05503533408045769</v>
       </c>
       <c r="K4">
         <v>40</v>
       </c>
       <c r="L4">
-        <v>0.05865865828981148</v>
+        <v>0.0531214904791036</v>
       </c>
       <c r="M4">
-        <v>0.0600777380168438</v>
+        <v>0.003685113741084933</v>
       </c>
       <c r="N4">
-        <v>22.66666666666667</v>
+        <v>39.66666666666666</v>
       </c>
       <c r="O4">
-        <v>0.06591788463375629</v>
+        <v>0.04912534816338873</v>
       </c>
       <c r="P4">
-        <v>0.007361403200775385</v>
+        <v>0.0114162340760231</v>
       </c>
       <c r="Q4">
-        <v>24</v>
+        <v>27.33333333333333</v>
       </c>
       <c r="R4">
-        <v>0.05798197311936543</v>
+        <v>0.06978559411131531</v>
       </c>
       <c r="S4">
-        <v>0.0622733049094677</v>
+        <v>0.2085064798593521</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="U4">
-        <v>0.09657719060881266</v>
+        <v>0.06561273065439988</v>
       </c>
       <c r="V4">
-        <v>0.05036551877856255</v>
+        <v>0.05679203569889069</v>
       </c>
       <c r="W4">
-        <v>12</v>
+        <v>45.33333333333334</v>
       </c>
       <c r="X4">
-        <v>0.1374259783763774</v>
+        <v>0.06252420024202572</v>
       </c>
       <c r="Y4">
-        <v>0.2343618869781494</v>
+        <v>0.02734237723052502</v>
       </c>
       <c r="Z4">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="AA4">
-        <v>0.01409823334057085</v>
+        <v>0.0196623450082357</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.0002536854008212686</v>
       </c>
       <c r="AC4">
-        <v>15</v>
+        <v>34.66666666666666</v>
       </c>
       <c r="AD4">
-        <v>0.3063712077336519</v>
+        <v>0.3362951275854448</v>
       </c>
       <c r="AE4">
-        <v>0.473623514175415</v>
+        <v>0.5262768864631653</v>
       </c>
       <c r="AF4">
         <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0316276559079506</v>
+        <v>0.07600297678969291</v>
       </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>21.66666666666667</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="AJ4">
-        <v>0.04834454358593971</v>
+        <v>0.05503029142025647</v>
       </c>
       <c r="AK4">
-        <v>0.002095037372782826</v>
+        <v>0.02404766529798508</v>
       </c>
     </row>
     <row r="5" spans="1:37">
@@ -742,112 +742,112 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>82.33333333333333</v>
       </c>
       <c r="C5">
-        <v>0.1139258227833487</v>
+        <v>0.08459750614664929</v>
       </c>
       <c r="D5">
-        <v>0.05401698872447014</v>
+        <v>0.01483506802469492</v>
       </c>
       <c r="E5">
-        <v>29.33333333333333</v>
+        <v>49</v>
       </c>
       <c r="F5">
-        <v>0.06593487367332922</v>
+        <v>0.04393198140726712</v>
       </c>
       <c r="G5">
-        <v>0.01479330379515886</v>
+        <v>0.02542418241500854</v>
       </c>
       <c r="H5">
-        <v>47</v>
+        <v>47.66666666666666</v>
       </c>
       <c r="I5">
-        <v>0.07119110128312515</v>
+        <v>0.04145213949812409</v>
       </c>
       <c r="J5">
-        <v>0.02827505767345428</v>
+        <v>0.006538233254104853</v>
       </c>
       <c r="K5">
-        <v>55.66666666666666</v>
+        <v>53</v>
       </c>
       <c r="L5">
-        <v>0.06328541315370928</v>
+        <v>0.06281287151561898</v>
       </c>
       <c r="M5">
-        <v>0.02281578630208969</v>
+        <v>0.02505537308752537</v>
       </c>
       <c r="N5">
-        <v>42.66666666666666</v>
+        <v>43</v>
       </c>
       <c r="O5">
-        <v>0.08228124498382638</v>
+        <v>0.09723726414940546</v>
       </c>
       <c r="P5">
-        <v>0.02550247311592102</v>
+        <v>0.03128800913691521</v>
       </c>
       <c r="Q5">
-        <v>36.33333333333334</v>
+        <v>21.33333333333333</v>
       </c>
       <c r="R5">
-        <v>0.06614613748832983</v>
+        <v>0.09219092859388917</v>
       </c>
       <c r="S5">
-        <v>0.06853657215833664</v>
+        <v>0.2298715561628342</v>
       </c>
       <c r="T5">
-        <v>15.66666666666667</v>
+        <v>51.66666666666666</v>
       </c>
       <c r="U5">
-        <v>0.086574678484912</v>
+        <v>0.1829183883133628</v>
       </c>
       <c r="V5">
-        <v>0.1993684619665146</v>
+        <v>0.2593426406383514</v>
       </c>
       <c r="W5">
-        <v>45.33333333333334</v>
+        <v>27.33333333333333</v>
       </c>
       <c r="X5">
-        <v>0.06652971829699711</v>
+        <v>0.0263498021137467</v>
       </c>
       <c r="Y5">
-        <v>0.06041627004742622</v>
+        <v>0.009445797652006149</v>
       </c>
       <c r="Z5">
-        <v>0.3333333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AA5">
-        <v>0.03038351110009441</v>
+        <v>0.01913602239572009</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.007172312121838331</v>
       </c>
       <c r="AC5">
-        <v>33.66666666666666</v>
+        <v>23</v>
       </c>
       <c r="AD5">
-        <v>0.2778633010676614</v>
+        <v>0.2929448553755234</v>
       </c>
       <c r="AE5">
-        <v>0.5138863325119019</v>
+        <v>0.365177184343338</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.03483447528486775</v>
+        <v>0.0199252132614353</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="AJ5">
-        <v>0.04104972239979884</v>
+        <v>0.03650302722925771</v>
       </c>
       <c r="AK5">
-        <v>0.01238876115530729</v>
+        <v>0.0258495882153511</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -855,112 +855,112 @@
         <v>19</v>
       </c>
       <c r="B6">
-        <v>51.33333333333334</v>
+        <v>66</v>
       </c>
       <c r="C6">
-        <v>0.2925183254707464</v>
+        <v>0.09675093826607668</v>
       </c>
       <c r="D6">
-        <v>0.1721075028181076</v>
+        <v>0.02235807292163372</v>
       </c>
       <c r="E6">
-        <v>29</v>
+        <v>31.33333333333333</v>
       </c>
       <c r="F6">
-        <v>0.05369977737113202</v>
+        <v>0.01179838716105657</v>
       </c>
       <c r="G6">
-        <v>0.1161672249436378</v>
+        <v>0.01855070143938065</v>
       </c>
       <c r="H6">
-        <v>50.66666666666666</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="I6">
-        <v>0.05946388599102614</v>
+        <v>0.01396618034470845</v>
       </c>
       <c r="J6">
-        <v>0.01293427217751741</v>
+        <v>0.005274617578834295</v>
       </c>
       <c r="K6">
-        <v>53.66666666666666</v>
+        <v>42</v>
       </c>
       <c r="L6">
-        <v>0.05752793136834741</v>
+        <v>0.03089382750426533</v>
       </c>
       <c r="M6">
-        <v>0.007595954928547144</v>
+        <v>0.01441141869872808</v>
       </c>
       <c r="N6">
-        <v>18</v>
+        <v>52.33333333333334</v>
       </c>
       <c r="O6">
-        <v>0.02925467750407666</v>
+        <v>0.202701846198762</v>
       </c>
       <c r="P6">
-        <v>0.01049167383462191</v>
+        <v>0.2374835610389709</v>
       </c>
       <c r="Q6">
-        <v>24</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="R6">
-        <v>0.02358421548083263</v>
+        <v>0.07814588823212504</v>
       </c>
       <c r="S6">
-        <v>8.808098755253013E-06</v>
+        <v>0.02322260290384293</v>
       </c>
       <c r="T6">
-        <v>21.66666666666667</v>
+        <v>34.66666666666666</v>
       </c>
       <c r="U6">
-        <v>0.03200228478720272</v>
+        <v>0.07752073379840431</v>
       </c>
       <c r="V6">
-        <v>0.05301284790039062</v>
+        <v>0.05876083299517632</v>
       </c>
       <c r="W6">
-        <v>11</v>
+        <v>36.33333333333334</v>
       </c>
       <c r="X6">
-        <v>0.0382879910791534</v>
+        <v>0.03850635141793182</v>
       </c>
       <c r="Y6">
-        <v>0.004286634270101786</v>
+        <v>0.006325559224933386</v>
       </c>
       <c r="Z6">
-        <v>1.333333333333333</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="AA6">
-        <v>0.0128757234088806</v>
+        <v>0.005969133060893041</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>0.01126038935035467</v>
       </c>
       <c r="AC6">
-        <v>32.33333333333334</v>
+        <v>36</v>
       </c>
       <c r="AD6">
-        <v>0.3143162953175049</v>
+        <v>0.3900883576764161</v>
       </c>
       <c r="AE6">
-        <v>0.5767449140548706</v>
+        <v>0.6022887825965881</v>
       </c>
       <c r="AF6">
-        <v>7.333333333333333</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="AG6">
-        <v>0.03740839714200832</v>
+        <v>0.04239829488905161</v>
       </c>
       <c r="AH6">
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>25.66666666666667</v>
+        <v>15</v>
       </c>
       <c r="AJ6">
-        <v>0.04906049507908884</v>
+        <v>0.01126006145030905</v>
       </c>
       <c r="AK6">
-        <v>0.04665016755461693</v>
+        <v>6.350987678160891E-05</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -968,112 +968,112 @@
         <v>20</v>
       </c>
       <c r="B7">
-        <v>62.33333333333334</v>
+        <v>75</v>
       </c>
       <c r="C7">
-        <v>0.2715606604674543</v>
+        <v>0.1384576812736409</v>
       </c>
       <c r="D7">
-        <v>0.3438178300857544</v>
+        <v>0.03302871063351631</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>56.66666666666666</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.07463878813935863</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.1186566427350044</v>
       </c>
       <c r="H7">
-        <v>40.66666666666666</v>
+        <v>55.33333333333334</v>
       </c>
       <c r="I7">
-        <v>0.06037052217315156</v>
+        <v>0.07073178359210468</v>
       </c>
       <c r="J7">
-        <v>0.02198587916791439</v>
+        <v>0.04449519142508507</v>
       </c>
       <c r="K7">
-        <v>61.33333333333334</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L7">
-        <v>0.04059879851318746</v>
+        <v>0.06824065053760038</v>
       </c>
       <c r="M7">
-        <v>0.02581742964684963</v>
+        <v>0.02550927363336086</v>
       </c>
       <c r="N7">
-        <v>41.66666666666666</v>
+        <v>43.33333333333334</v>
       </c>
       <c r="O7">
-        <v>0.09095853110450801</v>
+        <v>0.058086961386419</v>
       </c>
       <c r="P7">
-        <v>0.1184252873063087</v>
+        <v>0.01872030086815357</v>
       </c>
       <c r="Q7">
-        <v>18.66666666666667</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="R7">
-        <v>0.04448026095483687</v>
+        <v>0.05519105307695608</v>
       </c>
       <c r="S7">
-        <v>0.006889902055263519</v>
+        <v>0.03533033654093742</v>
       </c>
       <c r="T7">
-        <v>40.33333333333334</v>
+        <v>32.33333333333334</v>
       </c>
       <c r="U7">
-        <v>0.2152706762062622</v>
+        <v>0.07112340750765954</v>
       </c>
       <c r="V7">
-        <v>0.07494828104972839</v>
+        <v>0.02578736841678619</v>
       </c>
       <c r="W7">
-        <v>42.66666666666666</v>
+        <v>47</v>
       </c>
       <c r="X7">
-        <v>0.09573675033742192</v>
+        <v>0.0853293870001991</v>
       </c>
       <c r="Y7">
-        <v>0.1701634079217911</v>
+        <v>0.09965026378631592</v>
       </c>
       <c r="Z7">
-        <v>1.333333333333333</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="AA7">
-        <v>0.07887860424892357</v>
+        <v>0.02999102545871653</v>
       </c>
       <c r="AB7">
         <v>0</v>
       </c>
       <c r="AC7">
-        <v>29.33333333333333</v>
+        <v>27.33333333333333</v>
       </c>
       <c r="AD7">
-        <v>0.04184264038168062</v>
+        <v>0.2428205678902963</v>
       </c>
       <c r="AE7">
-        <v>0.1635126024484634</v>
+        <v>0.5928551554679871</v>
       </c>
       <c r="AF7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>0.0109400546887268</v>
+        <v>0.06008136088932892</v>
       </c>
       <c r="AH7">
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="AJ7">
-        <v>0.04936250092384686</v>
+        <v>0.04530733324771991</v>
       </c>
       <c r="AK7">
-        <v>0.07443938404321671</v>
+        <v>0.005966801661998034</v>
       </c>
     </row>
     <row r="8" spans="1:37">
@@ -1081,112 +1081,112 @@
         <v>21</v>
       </c>
       <c r="B8">
-        <v>68.66666666666667</v>
+        <v>33</v>
       </c>
       <c r="C8">
-        <v>0.1947919846214058</v>
+        <v>0.2225283202056324</v>
       </c>
       <c r="D8">
-        <v>0.02180751226842403</v>
+        <v>0.03440658375620842</v>
       </c>
       <c r="E8">
-        <v>55.33333333333334</v>
+        <v>30.66666666666667</v>
       </c>
       <c r="F8">
-        <v>0.05113430287932084</v>
+        <v>0.04891965245198506</v>
       </c>
       <c r="G8">
-        <v>0.01482920814305544</v>
+        <v>0.03573040664196014</v>
       </c>
       <c r="H8">
-        <v>48.33333333333334</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="I8">
-        <v>0.06813008998600135</v>
+        <v>0.06820791202361698</v>
       </c>
       <c r="J8">
-        <v>0.01290654111653566</v>
+        <v>0.04373988136649132</v>
       </c>
       <c r="K8">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="L8">
-        <v>0.04497832928765527</v>
+        <v>0.1067608229206487</v>
       </c>
       <c r="M8">
-        <v>0.05378947034478188</v>
+        <v>0.07856904715299606</v>
       </c>
       <c r="N8">
-        <v>39</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="O8">
-        <v>0.08827594900804218</v>
+        <v>0.07779277140847832</v>
       </c>
       <c r="P8">
-        <v>0.06501836329698563</v>
+        <v>0.02166333794593811</v>
       </c>
       <c r="Q8">
-        <v>30.66666666666667</v>
+        <v>12</v>
       </c>
       <c r="R8">
-        <v>0.0512475313617573</v>
+        <v>0.1173842494484281</v>
       </c>
       <c r="S8">
-        <v>0.1235400512814522</v>
+        <v>0.3316367566585541</v>
       </c>
       <c r="T8">
-        <v>40.33333333333334</v>
+        <v>33.66666666666666</v>
       </c>
       <c r="U8">
-        <v>0.1519296740302075</v>
+        <v>0.179405183454781</v>
       </c>
       <c r="V8">
-        <v>0.3362592756748199</v>
+        <v>0.2577149868011475</v>
       </c>
       <c r="W8">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="X8">
-        <v>0.1001553165501796</v>
+        <v>0.08519456066970792</v>
       </c>
       <c r="Y8">
-        <v>0.02586081624031067</v>
+        <v>0.1671474426984787</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AA8">
-        <v>0.01794932248933368</v>
+        <v>0.01227359559418936</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>1.571629978935896E-11</v>
       </c>
       <c r="AC8">
-        <v>38</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="AD8">
-        <v>0.1180322380171797</v>
+        <v>0.03576738639180373</v>
       </c>
       <c r="AE8">
-        <v>0.2164033204317093</v>
+        <v>0.01120483130216599</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="AG8">
-        <v>0.03427646040783785</v>
+        <v>0.0117462398282999</v>
       </c>
       <c r="AH8">
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="AJ8">
-        <v>0.07909880136107884</v>
+        <v>0.03401930560242852</v>
       </c>
       <c r="AK8">
-        <v>0.1295854151248932</v>
+        <v>0.01818680204451084</v>
       </c>
     </row>
   </sheetData>
